--- a/PythonResources/Data/Consumption/Sympheny/base_1380_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1380_hea.xlsx
@@ -519,7 +519,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>47.60177038353035</v>
+        <v>47.60177038353034</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -535,7 +535,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>61.0021505552817</v>
+        <v>61.00215055528169</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>61.53993591122527</v>
+        <v>61.53993591122526</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -871,7 +871,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1.261451018158096</v>
+        <v>1.261451018158095</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>175.6198892074246</v>
+        <v>175.6198892074245</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>92.3323238012955</v>
+        <v>92.33232380129547</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>115.4145988062631</v>
+        <v>115.414598806263</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>42.12192810264052</v>
+        <v>42.12192810264051</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>82.54375111000657</v>
+        <v>82.54375111000655</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>202.8318282181692</v>
+        <v>202.8318282181691</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>92.53571510212647</v>
+        <v>92.53571510212646</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>13.81264320183627</v>
+        <v>13.81264320183626</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>20.60743661899183</v>
+        <v>20.60743661899182</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>145.1405011866447</v>
+        <v>145.1405011866446</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>150.4339502869459</v>
+        <v>150.4339502869458</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>156.2446697704844</v>
+        <v>156.2446697704843</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>7.638662165877037</v>
+        <v>7.638662165877036</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>326</v>
       </c>
       <c r="B326">
-        <v>30.7024150812012</v>
+        <v>30.70241508120119</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>58.38619846419054</v>
+        <v>58.38619846419053</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>88.50335068118503</v>
+        <v>88.50335068118501</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>189.0865034339134</v>
+        <v>189.0865034339133</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>261.9313615904614</v>
+        <v>261.9313615904613</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>89.63724252976577</v>
+        <v>89.63724252976576</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>295.3716463148369</v>
+        <v>295.3716463148368</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>402</v>
       </c>
       <c r="B402">
-        <v>274.4328928866384</v>
+        <v>274.4328928866383</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>357.0074164557044</v>
+        <v>357.0074164557043</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>214.4377344201971</v>
+        <v>214.437734420197</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>199.426635819963</v>
+        <v>199.4266358199629</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>262.5887199301788</v>
+        <v>262.5887199301787</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>286.5443466303572</v>
+        <v>286.5443466303571</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>253.0911667802806</v>
+        <v>253.0911667802805</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>497</v>
       </c>
       <c r="B497">
-        <v>191.7654657983168</v>
+        <v>191.7654657983167</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>510</v>
       </c>
       <c r="B510">
-        <v>377.8535594356859</v>
+        <v>377.8535594356858</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>519</v>
       </c>
       <c r="B519">
-        <v>313.8058146466355</v>
+        <v>313.8058146466354</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>404.578707451214</v>
+        <v>404.5787074512139</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>326.5690583803371</v>
+        <v>326.569058380337</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>417.6467450651234</v>
+        <v>417.6467450651233</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>244.0824561228695</v>
+        <v>244.0824561228694</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>92.4058846319995</v>
+        <v>92.40588463199948</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>59.14027024666618</v>
+        <v>59.14027024666617</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>80.75601777417236</v>
+        <v>80.75601777417235</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>58.86771418071113</v>
+        <v>58.86771418071112</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>91.86341013943736</v>
+        <v>91.86341013943732</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>622</v>
       </c>
       <c r="B622">
-        <v>98.99734536253182</v>
+        <v>98.9973453625318</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>630</v>
       </c>
       <c r="B630">
-        <v>365.8200625882511</v>
+        <v>365.820062588251</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>651</v>
       </c>
       <c r="B651">
-        <v>387.4985273180308</v>
+        <v>387.4985273180307</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>82.37347683654433</v>
+        <v>82.37347683654431</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>220.2135784501349</v>
+        <v>220.2135784501348</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>323.3833761900883</v>
+        <v>323.3833761900882</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>347.0869617970179</v>
+        <v>347.0869617970178</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>339.5257289995552</v>
+        <v>339.5257289995551</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>343.4558116280038</v>
+        <v>343.4558116280037</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>137.2038443886568</v>
+        <v>137.2038443886567</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>275.8575112055712</v>
+        <v>275.8575112055711</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>364.5100350454349</v>
+        <v>364.5100350454348</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>820</v>
       </c>
       <c r="B820">
-        <v>370.5004070756728</v>
+        <v>370.5004070756727</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>384.6703917949488</v>
+        <v>384.6703917949487</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>824</v>
       </c>
       <c r="B824">
-        <v>385.1686125606731</v>
+        <v>385.168612560673</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>845</v>
       </c>
       <c r="B845">
-        <v>452.4840994307975</v>
+        <v>452.4840994307974</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>848</v>
       </c>
       <c r="B848">
-        <v>453.7501663178145</v>
+        <v>453.7501663178144</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>859</v>
       </c>
       <c r="B859">
-        <v>277.7932454159294</v>
+        <v>277.7932454159293</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>863</v>
       </c>
       <c r="B863">
-        <v>301.6521586733495</v>
+        <v>301.6521586733494</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>356.7846824663218</v>
+        <v>356.7846824663217</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>894</v>
       </c>
       <c r="B894">
-        <v>353.599000276073</v>
+        <v>353.5990002760729</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>203.1471726557688</v>
+        <v>203.1471726557687</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7703,7 +7703,7 @@
         <v>920</v>
       </c>
       <c r="B920">
-        <v>168.5718237986579</v>
+        <v>168.5718237986578</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>57.74906202614077</v>
+        <v>57.74906202614076</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>941</v>
       </c>
       <c r="B941">
-        <v>161.7148407070984</v>
+        <v>161.7148407070983</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>21.10495401422333</v>
+        <v>21.10495401422332</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>984</v>
       </c>
       <c r="B984">
-        <v>32.64195921506198</v>
+        <v>32.64195921506197</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>11.47639811004349</v>
+        <v>11.47639811004348</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>994</v>
       </c>
       <c r="B994">
-        <v>7.292750418945051</v>
+        <v>7.29275041894505</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>72.8252223969577</v>
+        <v>72.82522239695768</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>105.8168153611427</v>
+        <v>105.8168153611426</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>1033</v>
       </c>
       <c r="B1033">
-        <v>283.0928490080425</v>
+        <v>283.0928490080424</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>1035</v>
       </c>
       <c r="B1035">
-        <v>317.0208039407505</v>
+        <v>317.0208039407504</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8679,7 +8679,7 @@
         <v>1042</v>
       </c>
       <c r="B1042">
-        <v>151.8154871631955</v>
+        <v>151.8154871631954</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>1050</v>
       </c>
       <c r="B1050">
-        <v>144.003971698716</v>
+        <v>144.0039716987159</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>1052</v>
       </c>
       <c r="B1052">
-        <v>146.5407946093686</v>
+        <v>146.5407946093685</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>192.2941659520618</v>
+        <v>192.2941659520617</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>1074</v>
       </c>
       <c r="B1074">
-        <v>56.65092484427671</v>
+        <v>56.6509248442767</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>1076</v>
       </c>
       <c r="B1076">
-        <v>45.95353886209895</v>
+        <v>45.95353886209894</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>1077</v>
       </c>
       <c r="B1077">
-        <v>38.18569098237999</v>
+        <v>38.18569098237998</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>1091</v>
       </c>
       <c r="B1091">
-        <v>133.3780950499716</v>
+        <v>133.3780950499715</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9159,7 +9159,7 @@
         <v>1102</v>
       </c>
       <c r="B1102">
-        <v>99.75317557123942</v>
+        <v>99.7531755712394</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>1106</v>
       </c>
       <c r="B1106">
-        <v>198.6790116003379</v>
+        <v>198.6790116003378</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9247,7 +9247,7 @@
         <v>1113</v>
       </c>
       <c r="B1113">
-        <v>230.9689924979676</v>
+        <v>230.9689924979675</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>226.5154849944698</v>
+        <v>226.5154849944697</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9279,7 +9279,7 @@
         <v>1117</v>
       </c>
       <c r="B1117">
-        <v>237.5135618623141</v>
+        <v>237.513561862314</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>189.7195368774219</v>
+        <v>189.7195368774218</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>303.3197328833326</v>
+        <v>303.3197328833325</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>328.2659396941863</v>
+        <v>328.2659396941862</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>1133</v>
       </c>
       <c r="B1133">
-        <v>369.2870929756148</v>
+        <v>369.2870929756147</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>1144</v>
       </c>
       <c r="B1144">
-        <v>153.1422197552154</v>
+        <v>153.1422197552153</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9655,7 +9655,7 @@
         <v>1164</v>
       </c>
       <c r="B1164">
-        <v>89.46638211422621</v>
+        <v>89.46638211422619</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9679,7 +9679,7 @@
         <v>1167</v>
       </c>
       <c r="B1167">
-        <v>73.98373221278599</v>
+        <v>73.98373221278598</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>0.5808785214683329</v>
+        <v>0.5808785214683327</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10359,7 +10359,7 @@
         <v>1252</v>
       </c>
       <c r="B1252">
-        <v>51.53800750379088</v>
+        <v>51.53800750379087</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>6.94179785014809</v>
+        <v>6.941797850148089</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>5.814617328352689</v>
+        <v>5.814617328352688</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>33.26620052741065</v>
+        <v>33.26620052741064</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10527,7 +10527,7 @@
         <v>1273</v>
       </c>
       <c r="B1273">
-        <v>43.20717015880348</v>
+        <v>43.20717015880347</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
@@ -10623,7 +10623,7 @@
         <v>1285</v>
       </c>
       <c r="B1285">
-        <v>10.46750105945181</v>
+        <v>10.4675010594518</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10935,7 +10935,7 @@
         <v>1324</v>
       </c>
       <c r="B1324">
-        <v>76.46545776817027</v>
+        <v>76.46545776817025</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -10967,7 +10967,7 @@
         <v>1328</v>
       </c>
       <c r="B1328">
-        <v>26.93744867593436</v>
+        <v>26.93744867593435</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -11095,7 +11095,7 @@
         <v>1344</v>
       </c>
       <c r="B1344">
-        <v>0.8221990761228578</v>
+        <v>0.8221990761228577</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
@@ -11127,7 +11127,7 @@
         <v>1348</v>
       </c>
       <c r="B1348">
-        <v>37.10044892621703</v>
+        <v>37.10044892621702</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11143,7 +11143,7 @@
         <v>1350</v>
       </c>
       <c r="B1350">
-        <v>87.03096178295043</v>
+        <v>87.03096178295041</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>0.6207684205405286</v>
+        <v>0.6207684205405285</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>2.495725558901125</v>
+        <v>2.495725558901124</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>1361</v>
       </c>
       <c r="B1361">
-        <v>5.186155793047301</v>
+        <v>5.1861557930473</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>1365</v>
       </c>
       <c r="B1365">
-        <v>0.8672675404481994</v>
+        <v>0.8672675404481993</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>89.77176213651133</v>
+        <v>89.77176213651131</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>87.96087618862288</v>
+        <v>87.96087618862286</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11527,7 +11527,7 @@
         <v>1398</v>
       </c>
       <c r="B1398">
-        <v>6.449350583885431</v>
+        <v>6.44935058388543</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
@@ -11687,7 +11687,7 @@
         <v>1418</v>
       </c>
       <c r="B1418">
-        <v>172.9579249632636</v>
+        <v>172.9579249632635</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
@@ -11767,7 +11767,7 @@
         <v>1428</v>
       </c>
       <c r="B1428">
-        <v>97.28522435467224</v>
+        <v>97.28522435467222</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>173.4174603518846</v>
+        <v>173.4174603518845</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>81.6701063437571</v>
+        <v>81.67010634375708</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -11991,7 +11991,7 @@
         <v>1456</v>
       </c>
       <c r="B1456">
-        <v>92.56150535352867</v>
+        <v>92.56150535352866</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>92.72240135375375</v>
+        <v>92.72240135375374</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>252.1366344073606</v>
+        <v>252.1366344073605</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12351,7 +12351,7 @@
         <v>1501</v>
       </c>
       <c r="B1501">
-        <v>49.07445235280361</v>
+        <v>49.0744523528036</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>1507</v>
       </c>
       <c r="B1507">
-        <v>67.74512901280194</v>
+        <v>67.74512901280193</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12415,7 +12415,7 @@
         <v>1509</v>
       </c>
       <c r="B1509">
-        <v>75.71167905673329</v>
+        <v>75.71167905673327</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
@@ -12431,7 +12431,7 @@
         <v>1511</v>
       </c>
       <c r="B1511">
-        <v>119.5852927574527</v>
+        <v>119.5852927574526</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>77.4569170919616</v>
+        <v>77.45691709196159</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>222.6580839836092</v>
+        <v>222.6580839836091</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12775,7 +12775,7 @@
         <v>1554</v>
       </c>
       <c r="B1554">
-        <v>6.447064629783872</v>
+        <v>6.447064629783871</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
@@ -12815,7 +12815,7 @@
         <v>1559</v>
       </c>
       <c r="B1559">
-        <v>53.77736331020222</v>
+        <v>53.77736331020221</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
@@ -13015,7 +13015,7 @@
         <v>1584</v>
       </c>
       <c r="B1584">
-        <v>0.3658610925336636</v>
+        <v>0.3658610925336635</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>6.17975453542086</v>
+        <v>6.179754535420859</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13239,7 +13239,7 @@
         <v>1612</v>
       </c>
       <c r="B1612">
-        <v>336.9877338047479</v>
+        <v>336.9877338047478</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
@@ -13399,7 +13399,7 @@
         <v>1632</v>
       </c>
       <c r="B1632">
-        <v>246.4320066398175</v>
+        <v>246.4320066398174</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
@@ -13447,7 +13447,7 @@
         <v>1638</v>
       </c>
       <c r="B1638">
-        <v>330.3643283310015</v>
+        <v>330.3643283310014</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>234.5793346232367</v>
+        <v>234.5793346232366</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13903,7 +13903,7 @@
         <v>1695</v>
       </c>
       <c r="B1695">
-        <v>21.27399738932319</v>
+        <v>21.27399738932318</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -13927,7 +13927,7 @@
         <v>1698</v>
       </c>
       <c r="B1698">
-        <v>8.174396024549976</v>
+        <v>8.174396024549974</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -14015,7 +14015,7 @@
         <v>1709</v>
       </c>
       <c r="B1709">
-        <v>183.6784635574956</v>
+        <v>183.6784635574955</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -14063,7 +14063,7 @@
         <v>1715</v>
       </c>
       <c r="B1715">
-        <v>64.57058352202225</v>
+        <v>64.57058352202223</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>84.22861651127064</v>
+        <v>84.22861651127063</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>48.04020465736773</v>
+        <v>48.04020465736772</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14439,7 +14439,7 @@
         <v>1762</v>
       </c>
       <c r="B1762">
-        <v>84.37310053333069</v>
+        <v>84.37310053333067</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
@@ -14455,7 +14455,7 @@
         <v>1764</v>
       </c>
       <c r="B1764">
-        <v>50.39884037651423</v>
+        <v>50.39884037651422</v>
       </c>
     </row>
     <row r="1765" spans="1:2">
@@ -14631,7 +14631,7 @@
         <v>1786</v>
       </c>
       <c r="B1786">
-        <v>50.98263788552763</v>
+        <v>50.98263788552762</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -14663,7 +14663,7 @@
         <v>1790</v>
       </c>
       <c r="B1790">
-        <v>13.81909076468682</v>
+        <v>13.81909076468681</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -14855,7 +14855,7 @@
         <v>1814</v>
       </c>
       <c r="B1814">
-        <v>71.67814235163719</v>
+        <v>71.67814235163718</v>
       </c>
     </row>
     <row r="1815" spans="1:2">
@@ -15383,7 +15383,7 @@
         <v>1880</v>
       </c>
       <c r="B1880">
-        <v>78.44984177094624</v>
+        <v>78.44984177094622</v>
       </c>
     </row>
     <row r="1881" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>5.223375814957292</v>
+        <v>5.223375814957291</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15503,7 +15503,7 @@
         <v>1895</v>
       </c>
       <c r="B1895">
-        <v>77.46424386792813</v>
+        <v>77.46424386792812</v>
       </c>
     </row>
     <row r="1896" spans="1:2">
@@ -15575,7 +15575,7 @@
         <v>1904</v>
       </c>
       <c r="B1904">
-        <v>61.2448133752933</v>
+        <v>61.24481337529329</v>
       </c>
     </row>
     <row r="1905" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>6.963221343074234</v>
+        <v>6.963221343074233</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>3.539565469432398</v>
+        <v>3.539565469432397</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>4.726444561803114</v>
+        <v>4.726444561803113</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15679,7 +15679,7 @@
         <v>1917</v>
       </c>
       <c r="B1917">
-        <v>15.77141279583324</v>
+        <v>15.77141279583323</v>
       </c>
     </row>
     <row r="1918" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>0.0551574348312585</v>
+        <v>0.0551574348312584</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -16039,7 +16039,7 @@
         <v>1962</v>
       </c>
       <c r="B1962">
-        <v>68.1472224778453</v>
+        <v>68.14722247784529</v>
       </c>
     </row>
     <row r="1963" spans="1:2">
@@ -16119,7 +16119,7 @@
         <v>1972</v>
       </c>
       <c r="B1972">
-        <v>191.0031880267586</v>
+        <v>191.0031880267585</v>
       </c>
     </row>
     <row r="1973" spans="1:2">
@@ -16223,7 +16223,7 @@
         <v>1985</v>
       </c>
       <c r="B1985">
-        <v>66.56551808219002</v>
+        <v>66.56551808219001</v>
       </c>
     </row>
     <row r="1986" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>32.76416983818376</v>
+        <v>32.76416983818375</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16423,7 +16423,7 @@
         <v>2010</v>
       </c>
       <c r="B2010">
-        <v>51.08697117529107</v>
+        <v>51.08697117529106</v>
       </c>
     </row>
     <row r="2011" spans="1:2">
@@ -16759,7 +16759,7 @@
         <v>2052</v>
       </c>
       <c r="B2052">
-        <v>86.58197695172124</v>
+        <v>86.58197695172123</v>
       </c>
     </row>
     <row r="2053" spans="1:2">
@@ -16807,7 +16807,7 @@
         <v>2058</v>
       </c>
       <c r="B2058">
-        <v>56.79863264776203</v>
+        <v>56.79863264776202</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -16839,7 +16839,7 @@
         <v>2062</v>
       </c>
       <c r="B2062">
-        <v>54.69672715848286</v>
+        <v>54.69672715848285</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>93.68220900536966</v>
+        <v>93.68220900536964</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16951,7 +16951,7 @@
         <v>2076</v>
       </c>
       <c r="B2076">
-        <v>70.9653935856128</v>
+        <v>70.96539358561279</v>
       </c>
     </row>
     <row r="2077" spans="1:2">
@@ -16991,7 +16991,7 @@
         <v>2081</v>
       </c>
       <c r="B2081">
-        <v>6.112377503632616</v>
+        <v>6.112377503632615</v>
       </c>
     </row>
     <row r="2082" spans="1:2">
@@ -17015,7 +17015,7 @@
         <v>2084</v>
       </c>
       <c r="B2084">
-        <v>0.7213386781675558</v>
+        <v>0.7213386781675557</v>
       </c>
     </row>
     <row r="2085" spans="1:2">
@@ -17055,7 +17055,7 @@
         <v>2089</v>
       </c>
       <c r="B2089">
-        <v>92.65821879628692</v>
+        <v>92.6582187962869</v>
       </c>
     </row>
     <row r="2090" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>8.455978678495796</v>
+        <v>8.455978678495795</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17319,7 +17319,7 @@
         <v>2122</v>
       </c>
       <c r="B2122">
-        <v>3.553925950326804</v>
+        <v>3.553925950326803</v>
       </c>
     </row>
     <row r="2123" spans="1:2">
@@ -17407,7 +17407,7 @@
         <v>2133</v>
       </c>
       <c r="B2133">
-        <v>0.6958121907001527</v>
+        <v>0.6958121907001525</v>
       </c>
     </row>
     <row r="2134" spans="1:2">
@@ -17439,7 +17439,7 @@
         <v>2137</v>
       </c>
       <c r="B2137">
-        <v>76.73566926581603</v>
+        <v>76.73566926581601</v>
       </c>
     </row>
     <row r="2138" spans="1:2">
@@ -17623,7 +17623,7 @@
         <v>2160</v>
       </c>
       <c r="B2160">
-        <v>88.82719417890581</v>
+        <v>88.8271941789058</v>
       </c>
     </row>
     <row r="2161" spans="1:2">
@@ -17663,7 +17663,7 @@
         <v>2165</v>
       </c>
       <c r="B2165">
-        <v>181.0543054773219</v>
+        <v>181.0543054773218</v>
       </c>
     </row>
     <row r="2166" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>76.04753846703919</v>
+        <v>76.04753846703917</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>99.55769718845232</v>
+        <v>99.55769718845229</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18071,7 +18071,7 @@
         <v>2216</v>
       </c>
       <c r="B2216">
-        <v>14.84340335191209</v>
+        <v>14.84340335191208</v>
       </c>
     </row>
     <row r="2217" spans="1:2">
@@ -18191,7 +18191,7 @@
         <v>2231</v>
       </c>
       <c r="B2231">
-        <v>7.499834414863157</v>
+        <v>7.499834414863156</v>
       </c>
     </row>
     <row r="2232" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>19.61717888645901</v>
+        <v>19.617178886459</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18415,7 +18415,7 @@
         <v>2259</v>
       </c>
       <c r="B2259">
-        <v>21.58175128702147</v>
+        <v>21.58175128702146</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -18591,7 +18591,7 @@
         <v>2281</v>
       </c>
       <c r="B2281">
-        <v>38.3410186328705</v>
+        <v>38.34101863287049</v>
       </c>
     </row>
     <row r="2282" spans="1:2">
@@ -18807,7 +18807,7 @@
         <v>2308</v>
       </c>
       <c r="B2308">
-        <v>0.1875531557596372</v>
+        <v>0.1875531557596371</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>24.19275047755926</v>
+        <v>24.19275047755925</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19263,7 +19263,7 @@
         <v>2365</v>
       </c>
       <c r="B2365">
-        <v>34.45577587333705</v>
+        <v>34.45577587333704</v>
       </c>
     </row>
     <row r="2366" spans="1:2">
@@ -19519,7 +19519,7 @@
         <v>2397</v>
       </c>
       <c r="B2397">
-        <v>39.78058357477503</v>
+        <v>39.78058357477502</v>
       </c>
     </row>
     <row r="2398" spans="1:2">
@@ -19527,7 +19527,7 @@
         <v>2398</v>
       </c>
       <c r="B2398">
-        <v>72.02777610076018</v>
+        <v>72.02777610076016</v>
       </c>
     </row>
     <row r="2399" spans="1:2">
@@ -19631,7 +19631,7 @@
         <v>2411</v>
       </c>
       <c r="B2411">
-        <v>62.3350376391135</v>
+        <v>62.33503763911349</v>
       </c>
     </row>
     <row r="2412" spans="1:2">
@@ -19951,7 +19951,7 @@
         <v>2451</v>
       </c>
       <c r="B2451">
-        <v>5.326624741877684</v>
+        <v>5.326624741877683</v>
       </c>
     </row>
     <row r="2452" spans="1:2">
@@ -19967,7 +19967,7 @@
         <v>2453</v>
       </c>
       <c r="B2453">
-        <v>2.684624496870295</v>
+        <v>2.684624496870294</v>
       </c>
     </row>
     <row r="2454" spans="1:2">
@@ -19975,7 +19975,7 @@
         <v>2454</v>
       </c>
       <c r="B2454">
-        <v>2.425464708092454</v>
+        <v>2.425464708092453</v>
       </c>
     </row>
     <row r="2455" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>95.7313617076898</v>
+        <v>95.73136170768976</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -20351,7 +20351,7 @@
         <v>2501</v>
       </c>
       <c r="B2501">
-        <v>176.2886773176498</v>
+        <v>176.2886773176497</v>
       </c>
     </row>
     <row r="2502" spans="1:2">
@@ -20559,7 +20559,7 @@
         <v>2527</v>
       </c>
       <c r="B2527">
-        <v>70.7303506126064</v>
+        <v>70.73035061260639</v>
       </c>
     </row>
     <row r="2528" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>49.12251600314407</v>
+        <v>49.12251600314406</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -20863,7 +20863,7 @@
         <v>2565</v>
       </c>
       <c r="B2565">
-        <v>11.99598375448619</v>
+        <v>11.99598375448618</v>
       </c>
     </row>
     <row r="2566" spans="1:2">
@@ -21039,7 +21039,7 @@
         <v>2587</v>
       </c>
       <c r="B2587">
-        <v>0.3811857771452654</v>
+        <v>0.3811857771452653</v>
       </c>
     </row>
     <row r="2588" spans="1:2">
@@ -21055,7 +21055,7 @@
         <v>2589</v>
       </c>
       <c r="B2589">
-        <v>6.161378981296793</v>
+        <v>6.161378981296792</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21143,7 +21143,7 @@
         <v>2600</v>
       </c>
       <c r="B2600">
-        <v>39.08747056834095</v>
+        <v>39.08747056834094</v>
       </c>
     </row>
     <row r="2601" spans="1:2">
@@ -21159,7 +21159,7 @@
         <v>2602</v>
       </c>
       <c r="B2602">
-        <v>6.577510549092038</v>
+        <v>6.577510549092037</v>
       </c>
     </row>
     <row r="2603" spans="1:2">
@@ -21279,7 +21279,7 @@
         <v>2617</v>
       </c>
       <c r="B2617">
-        <v>65.57200726112806</v>
+        <v>65.57200726112805</v>
       </c>
     </row>
     <row r="2618" spans="1:2">
@@ -21439,7 +21439,7 @@
         <v>2637</v>
       </c>
       <c r="B2637">
-        <v>0.389945670490853</v>
+        <v>0.3899456704908529</v>
       </c>
     </row>
     <row r="2638" spans="1:2">
@@ -21519,7 +21519,7 @@
         <v>2647</v>
       </c>
       <c r="B2647">
-        <v>71.34697207794987</v>
+        <v>71.34697207794986</v>
       </c>
     </row>
     <row r="2648" spans="1:2">
@@ -21535,7 +21535,7 @@
         <v>2649</v>
       </c>
       <c r="B2649">
-        <v>5.348311998738623</v>
+        <v>5.348311998738622</v>
       </c>
     </row>
     <row r="2650" spans="1:2">
@@ -21559,7 +21559,7 @@
         <v>2652</v>
       </c>
       <c r="B2652">
-        <v>1.613965655591122</v>
+        <v>1.613965655591121</v>
       </c>
     </row>
     <row r="2653" spans="1:2">
@@ -21583,7 +21583,7 @@
         <v>2655</v>
       </c>
       <c r="B2655">
-        <v>9.192993726521347</v>
+        <v>9.192993726521346</v>
       </c>
     </row>
     <row r="2656" spans="1:2">
@@ -21615,7 +21615,7 @@
         <v>2659</v>
       </c>
       <c r="B2659">
-        <v>16.60244503306135</v>
+        <v>16.60244503306134</v>
       </c>
     </row>
     <row r="2660" spans="1:2">
@@ -21679,7 +21679,7 @@
         <v>2667</v>
       </c>
       <c r="B2667">
-        <v>121.8393021157971</v>
+        <v>121.839302115797</v>
       </c>
     </row>
     <row r="2668" spans="1:2">
@@ -21743,7 +21743,7 @@
         <v>2675</v>
       </c>
       <c r="B2675">
-        <v>0.8477343557214209</v>
+        <v>0.8477343557214208</v>
       </c>
     </row>
     <row r="2676" spans="1:2">
@@ -21815,7 +21815,7 @@
         <v>2684</v>
       </c>
       <c r="B2684">
-        <v>2.849353866281064</v>
+        <v>2.849353866281063</v>
       </c>
     </row>
     <row r="2685" spans="1:2">
@@ -21871,7 +21871,7 @@
         <v>2691</v>
       </c>
       <c r="B2691">
-        <v>99.79948079534792</v>
+        <v>99.7994807953479</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -21903,7 +21903,7 @@
         <v>2695</v>
       </c>
       <c r="B2695">
-        <v>62.91561136670163</v>
+        <v>62.91561136670162</v>
       </c>
     </row>
     <row r="2696" spans="1:2">
@@ -21951,7 +21951,7 @@
         <v>2701</v>
       </c>
       <c r="B2701">
-        <v>20.0621779515624</v>
+        <v>20.06217795156239</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -22015,7 +22015,7 @@
         <v>2709</v>
       </c>
       <c r="B2709">
-        <v>29.62596515619808</v>
+        <v>29.62596515619807</v>
       </c>
     </row>
     <row r="2710" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>68.38167930877438</v>
+        <v>68.38167930877437</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>49.99147163277496</v>
+        <v>49.99147163277495</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>78.46244382560867</v>
+        <v>78.46244382560866</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -22775,7 +22775,7 @@
         <v>2804</v>
       </c>
       <c r="B2804">
-        <v>0.450250898116198</v>
+        <v>0.4502508981161979</v>
       </c>
     </row>
     <row r="2805" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>38.75131808699639</v>
+        <v>38.75131808699638</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -23031,7 +23031,7 @@
         <v>2836</v>
       </c>
       <c r="B2836">
-        <v>85.77984151890514</v>
+        <v>85.77984151890513</v>
       </c>
     </row>
     <row r="2837" spans="1:2">
@@ -23039,7 +23039,7 @@
         <v>2837</v>
       </c>
       <c r="B2837">
-        <v>99.04042680521503</v>
+        <v>99.04042680521502</v>
       </c>
     </row>
     <row r="2838" spans="1:2">
@@ -23207,7 +23207,7 @@
         <v>2858</v>
       </c>
       <c r="B2858">
-        <v>72.40466545647867</v>
+        <v>72.40466545647865</v>
       </c>
     </row>
     <row r="2859" spans="1:2">
@@ -23215,7 +23215,7 @@
         <v>2859</v>
       </c>
       <c r="B2859">
-        <v>87.2601433351836</v>
+        <v>87.26014333518359</v>
       </c>
     </row>
     <row r="2860" spans="1:2">
@@ -23423,7 +23423,7 @@
         <v>2885</v>
       </c>
       <c r="B2885">
-        <v>78.32528657951516</v>
+        <v>78.32528657951515</v>
       </c>
     </row>
     <row r="2886" spans="1:2">
@@ -24031,7 +24031,7 @@
         <v>2961</v>
       </c>
       <c r="B2961">
-        <v>1.861578445445706</v>
+        <v>1.861578445445705</v>
       </c>
     </row>
     <row r="2962" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>2974</v>
       </c>
       <c r="B2974">
-        <v>1.937261110469612</v>
+        <v>1.937261110469611</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -24159,7 +24159,7 @@
         <v>2977</v>
       </c>
       <c r="B2977">
-        <v>66.3026333605108</v>
+        <v>66.30263336051078</v>
       </c>
     </row>
     <row r="2978" spans="1:2">
@@ -24351,7 +24351,7 @@
         <v>3001</v>
       </c>
       <c r="B3001">
-        <v>8.434467264258053</v>
+        <v>8.434467264258052</v>
       </c>
     </row>
     <row r="3002" spans="1:2">
@@ -24359,7 +24359,7 @@
         <v>3002</v>
       </c>
       <c r="B3002">
-        <v>41.66063428778756</v>
+        <v>41.66063428778755</v>
       </c>
     </row>
     <row r="3003" spans="1:2">
@@ -24751,7 +24751,7 @@
         <v>3051</v>
       </c>
       <c r="B3051">
-        <v>0.1253532238693466</v>
+        <v>0.1253532238693465</v>
       </c>
     </row>
     <row r="3052" spans="1:2">
@@ -26095,7 +26095,7 @@
         <v>3219</v>
       </c>
       <c r="B3219">
-        <v>55.47395155301275</v>
+        <v>55.47395155301274</v>
       </c>
     </row>
     <row r="3220" spans="1:2">
@@ -26111,7 +26111,7 @@
         <v>3221</v>
       </c>
       <c r="B3221">
-        <v>83.62459710058961</v>
+        <v>83.6245971005896</v>
       </c>
     </row>
     <row r="3222" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>0.7266930860438986</v>
+        <v>0.7266930860438985</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26263,7 +26263,7 @@
         <v>3240</v>
       </c>
       <c r="B3240">
-        <v>5.670367763123575</v>
+        <v>5.670367763123574</v>
       </c>
     </row>
     <row r="3241" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>2.710605244447623</v>
+        <v>2.710605244447622</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26863,7 +26863,7 @@
         <v>3315</v>
       </c>
       <c r="B3315">
-        <v>104.9683747042181</v>
+        <v>104.968374704218</v>
       </c>
     </row>
     <row r="3316" spans="1:2">
@@ -26895,7 +26895,7 @@
         <v>3319</v>
       </c>
       <c r="B3319">
-        <v>45.07696338546286</v>
+        <v>45.07696338546285</v>
       </c>
     </row>
     <row r="3320" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>47.58389305017201</v>
+        <v>47.583893050172</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27231,7 +27231,7 @@
         <v>3361</v>
       </c>
       <c r="B3361">
-        <v>103.8661345278128</v>
+        <v>103.8661345278127</v>
       </c>
     </row>
     <row r="3362" spans="1:2">
@@ -27399,7 +27399,7 @@
         <v>3382</v>
       </c>
       <c r="B3382">
-        <v>3.316831480049776</v>
+        <v>3.316831480049775</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>149.400581804626</v>
+        <v>149.4005818046259</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27623,7 +27623,7 @@
         <v>3410</v>
       </c>
       <c r="B3410">
-        <v>80.79177244088905</v>
+        <v>80.79177244088903</v>
       </c>
     </row>
     <row r="3411" spans="1:2">
@@ -27847,7 +27847,7 @@
         <v>3438</v>
       </c>
       <c r="B3438">
-        <v>2.212809431729395</v>
+        <v>2.212809431729394</v>
       </c>
     </row>
     <row r="3439" spans="1:2">
@@ -30919,7 +30919,7 @@
         <v>3822</v>
       </c>
       <c r="B3822">
-        <v>3.533235134997313</v>
+        <v>3.533235134997312</v>
       </c>
     </row>
     <row r="3823" spans="1:2">
@@ -42039,7 +42039,7 @@
         <v>5212</v>
       </c>
       <c r="B5212">
-        <v>10.93931612459271</v>
+        <v>10.9393161245927</v>
       </c>
     </row>
     <row r="5213" spans="1:2">
@@ -42247,7 +42247,7 @@
         <v>5238</v>
       </c>
       <c r="B5238">
-        <v>4.96787648345233</v>
+        <v>4.967876483452329</v>
       </c>
     </row>
     <row r="5239" spans="1:2">
@@ -47591,7 +47591,7 @@
         <v>5906</v>
       </c>
       <c r="B5906">
-        <v>9.489816074477558</v>
+        <v>9.489816074477556</v>
       </c>
     </row>
     <row r="5907" spans="1:2">
@@ -47791,7 +47791,7 @@
         <v>5931</v>
       </c>
       <c r="B5931">
-        <v>68.02794256511014</v>
+        <v>68.02794256511012</v>
       </c>
     </row>
     <row r="5932" spans="1:2">
@@ -47807,7 +47807,7 @@
         <v>5933</v>
       </c>
       <c r="B5933">
-        <v>45.44154375755758</v>
+        <v>45.44154375755757</v>
       </c>
     </row>
     <row r="5934" spans="1:2">
@@ -48183,7 +48183,7 @@
         <v>5980</v>
       </c>
       <c r="B5980">
-        <v>1.363023578737345</v>
+        <v>1.363023578737344</v>
       </c>
     </row>
     <row r="5981" spans="1:2">
@@ -49343,7 +49343,7 @@
         <v>6125</v>
       </c>
       <c r="B6125">
-        <v>0.4866503211179371</v>
+        <v>0.486650321117937</v>
       </c>
     </row>
     <row r="6126" spans="1:2">
@@ -50463,7 +50463,7 @@
         <v>6265</v>
       </c>
       <c r="B6265">
-        <v>0.518639024987823</v>
+        <v>0.5186390249878229</v>
       </c>
     </row>
     <row r="6266" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>0.9068907448752134</v>
+        <v>0.9068907448752132</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -51279,7 +51279,7 @@
         <v>6367</v>
       </c>
       <c r="B6367">
-        <v>0.8502870044681612</v>
+        <v>0.8502870044681611</v>
       </c>
     </row>
     <row r="6368" spans="1:2">
@@ -51799,7 +51799,7 @@
         <v>6432</v>
       </c>
       <c r="B6432">
-        <v>0.4484895411738433</v>
+        <v>0.4484895411738432</v>
       </c>
     </row>
     <row r="6433" spans="1:2">
@@ -52199,7 +52199,7 @@
         <v>6482</v>
       </c>
       <c r="B6482">
-        <v>0.8711800388143285</v>
+        <v>0.8711800388143284</v>
       </c>
     </row>
     <row r="6483" spans="1:2">
@@ -52823,7 +52823,7 @@
         <v>6560</v>
       </c>
       <c r="B6560">
-        <v>22.73829752689074</v>
+        <v>22.73829752689073</v>
       </c>
     </row>
     <row r="6561" spans="1:2">
@@ -52831,7 +52831,7 @@
         <v>6561</v>
       </c>
       <c r="B6561">
-        <v>14.36036366599046</v>
+        <v>14.36036366599045</v>
       </c>
     </row>
     <row r="6562" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>0.837224828275025</v>
+        <v>0.8372248282750249</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53975,7 +53975,7 @@
         <v>6704</v>
       </c>
       <c r="B6704">
-        <v>22.30625220169619</v>
+        <v>22.30625220169618</v>
       </c>
     </row>
     <row r="6705" spans="1:2">
@@ -54167,7 +54167,7 @@
         <v>6728</v>
       </c>
       <c r="B6728">
-        <v>46.11912399894261</v>
+        <v>46.1191239989426</v>
       </c>
     </row>
     <row r="6729" spans="1:2">
@@ -54215,7 +54215,7 @@
         <v>6734</v>
       </c>
       <c r="B6734">
-        <v>0.7135576420910972</v>
+        <v>0.7135576420910971</v>
       </c>
     </row>
     <row r="6735" spans="1:2">
@@ -54479,7 +54479,7 @@
         <v>6767</v>
       </c>
       <c r="B6767">
-        <v>37.80088870861764</v>
+        <v>37.80088870861763</v>
       </c>
     </row>
     <row r="6768" spans="1:2">
@@ -54695,7 +54695,7 @@
         <v>6794</v>
       </c>
       <c r="B6794">
-        <v>17.3540843259161</v>
+        <v>17.35408432591609</v>
       </c>
     </row>
     <row r="6795" spans="1:2">
@@ -54727,7 +54727,7 @@
         <v>6798</v>
       </c>
       <c r="B6798">
-        <v>31.03622299423647</v>
+        <v>31.03622299423646</v>
       </c>
     </row>
     <row r="6799" spans="1:2">
@@ -55119,7 +55119,7 @@
         <v>6847</v>
       </c>
       <c r="B6847">
-        <v>5.524564921389556</v>
+        <v>5.524564921389555</v>
       </c>
     </row>
     <row r="6848" spans="1:2">
@@ -55479,7 +55479,7 @@
         <v>6892</v>
       </c>
       <c r="B6892">
-        <v>48.13662502908731</v>
+        <v>48.1366250290873</v>
       </c>
     </row>
     <row r="6893" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>38.86590886311297</v>
+        <v>38.86590886311296</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55815,7 +55815,7 @@
         <v>6934</v>
       </c>
       <c r="B6934">
-        <v>0.6187872603191779</v>
+        <v>0.6187872603191777</v>
       </c>
     </row>
     <row r="6935" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>0.658741635019879</v>
+        <v>0.6587416350198789</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -56007,7 +56007,7 @@
         <v>6958</v>
       </c>
       <c r="B6958">
-        <v>9.595995711784564</v>
+        <v>9.595995711784562</v>
       </c>
     </row>
     <row r="6959" spans="1:2">
@@ -56079,7 +56079,7 @@
         <v>6967</v>
       </c>
       <c r="B6967">
-        <v>62.26616594502809</v>
+        <v>62.26616594502808</v>
       </c>
     </row>
     <row r="6968" spans="1:2">
@@ -56207,7 +56207,7 @@
         <v>6983</v>
       </c>
       <c r="B6983">
-        <v>75.00567092459811</v>
+        <v>75.00567092459809</v>
       </c>
     </row>
     <row r="6984" spans="1:2">
@@ -56391,7 +56391,7 @@
         <v>7006</v>
       </c>
       <c r="B7006">
-        <v>0.6931686899314273</v>
+        <v>0.6931686899314272</v>
       </c>
     </row>
     <row r="7007" spans="1:2">
@@ -56399,7 +56399,7 @@
         <v>7007</v>
       </c>
       <c r="B7007">
-        <v>9.769757530606876</v>
+        <v>9.769757530606874</v>
       </c>
     </row>
     <row r="7008" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>82.29932986376301</v>
+        <v>82.29932986376299</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56591,7 +56591,7 @@
         <v>7031</v>
       </c>
       <c r="B7031">
-        <v>0.7647337068621413</v>
+        <v>0.7647337068621411</v>
       </c>
     </row>
     <row r="7032" spans="1:2">
@@ -56647,7 +56647,7 @@
         <v>7038</v>
       </c>
       <c r="B7038">
-        <v>64.50640096455541</v>
+        <v>64.5064009645554</v>
       </c>
     </row>
     <row r="7039" spans="1:2">
@@ -57007,7 +57007,7 @@
         <v>7083</v>
       </c>
       <c r="B7083">
-        <v>9.573253399184445</v>
+        <v>9.57325339918444</v>
       </c>
     </row>
     <row r="7084" spans="1:2">
@@ -57559,7 +57559,7 @@
         <v>7152</v>
       </c>
       <c r="B7152">
-        <v>7.322174751226649</v>
+        <v>7.322174751226648</v>
       </c>
     </row>
     <row r="7153" spans="1:2">
@@ -57759,7 +57759,7 @@
         <v>7177</v>
       </c>
       <c r="B7177">
-        <v>81.18917676931383</v>
+        <v>81.18917676931382</v>
       </c>
     </row>
     <row r="7178" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>57.47650596018572</v>
+        <v>57.47650596018571</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -57935,7 +57935,7 @@
         <v>7199</v>
       </c>
       <c r="B7199">
-        <v>79.70096203499152</v>
+        <v>79.70096203499151</v>
       </c>
     </row>
     <row r="7200" spans="1:2">
@@ -58047,7 +58047,7 @@
         <v>7213</v>
       </c>
       <c r="B7213">
-        <v>4.148391245147477</v>
+        <v>4.148391245147476</v>
       </c>
     </row>
     <row r="7214" spans="1:2">
@@ -58191,7 +58191,7 @@
         <v>7231</v>
       </c>
       <c r="B7231">
-        <v>227.9052278598019</v>
+        <v>227.9052278598018</v>
       </c>
     </row>
     <row r="7232" spans="1:2">
@@ -58279,7 +58279,7 @@
         <v>7242</v>
       </c>
       <c r="B7242">
-        <v>2.055169450743844</v>
+        <v>2.055169450743843</v>
       </c>
     </row>
     <row r="7243" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>129.114790650565</v>
+        <v>129.1147906505649</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58607,7 +58607,7 @@
         <v>7283</v>
       </c>
       <c r="B7283">
-        <v>3.081788507043377</v>
+        <v>3.081788507043376</v>
       </c>
     </row>
     <row r="7284" spans="1:2">
@@ -58767,7 +58767,7 @@
         <v>7303</v>
       </c>
       <c r="B7303">
-        <v>156.7830412685053</v>
+        <v>156.7830412685052</v>
       </c>
     </row>
     <row r="7304" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>39.38317924635025</v>
+        <v>39.38317924635024</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58799,7 +58799,7 @@
         <v>7307</v>
       </c>
       <c r="B7307">
-        <v>7.01154875734949</v>
+        <v>7.011548757349489</v>
       </c>
     </row>
     <row r="7308" spans="1:2">
@@ -58863,7 +58863,7 @@
         <v>7315</v>
       </c>
       <c r="B7315">
-        <v>0.5603049345543064</v>
+        <v>0.5603049345543063</v>
       </c>
     </row>
     <row r="7316" spans="1:2">
@@ -58967,7 +58967,7 @@
         <v>7328</v>
       </c>
       <c r="B7328">
-        <v>58.40407579754888</v>
+        <v>58.40407579754887</v>
       </c>
     </row>
     <row r="7329" spans="1:2">
@@ -59295,7 +59295,7 @@
         <v>7369</v>
       </c>
       <c r="B7369">
-        <v>41.98682235381764</v>
+        <v>41.98682235381763</v>
       </c>
     </row>
     <row r="7370" spans="1:2">
@@ -59335,7 +59335,7 @@
         <v>7374</v>
       </c>
       <c r="B7374">
-        <v>44.50635407318922</v>
+        <v>44.50635407318921</v>
       </c>
     </row>
     <row r="7375" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>37.28625596472832</v>
+        <v>37.28625596472831</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59543,7 +59543,7 @@
         <v>7400</v>
       </c>
       <c r="B7400">
-        <v>53.84857957259693</v>
+        <v>53.84857957259692</v>
       </c>
     </row>
     <row r="7401" spans="1:2">
@@ -59583,7 +59583,7 @@
         <v>7405</v>
       </c>
       <c r="B7405">
-        <v>1.361273944636537</v>
+        <v>1.361273944636536</v>
       </c>
     </row>
     <row r="7406" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>0.7583769960335767</v>
+        <v>0.7583769960335766</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59807,7 +59807,7 @@
         <v>7433</v>
       </c>
       <c r="B7433">
-        <v>14.24656418167826</v>
+        <v>14.24656418167825</v>
       </c>
     </row>
     <row r="7434" spans="1:2">
@@ -59823,7 +59823,7 @@
         <v>7435</v>
       </c>
       <c r="B7435">
-        <v>59.29794246546598</v>
+        <v>59.29794246546597</v>
       </c>
     </row>
     <row r="7436" spans="1:2">
@@ -59903,7 +59903,7 @@
         <v>7445</v>
       </c>
       <c r="B7445">
-        <v>204.3531599798602</v>
+        <v>204.3531599798601</v>
       </c>
     </row>
     <row r="7446" spans="1:2">
@@ -59951,7 +59951,7 @@
         <v>7451</v>
       </c>
       <c r="B7451">
-        <v>7.187127616611502</v>
+        <v>7.187127616611501</v>
       </c>
     </row>
     <row r="7452" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>2.161900061603533</v>
+        <v>2.161900061603532</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>83.98624676229771</v>
+        <v>83.9862467622977</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60087,7 +60087,7 @@
         <v>7468</v>
       </c>
       <c r="B7468">
-        <v>76.95752404208267</v>
+        <v>76.95752404208265</v>
       </c>
     </row>
     <row r="7469" spans="1:2">
@@ -60143,7 +60143,7 @@
         <v>7475</v>
       </c>
       <c r="B7475">
-        <v>1.960021007332052</v>
+        <v>1.960021007332051</v>
       </c>
     </row>
     <row r="7476" spans="1:2">
@@ -60247,7 +60247,7 @@
         <v>7488</v>
       </c>
       <c r="B7488">
-        <v>4.867470345606954</v>
+        <v>4.867470345606953</v>
       </c>
     </row>
     <row r="7489" spans="1:2">
@@ -60279,7 +60279,7 @@
         <v>7492</v>
       </c>
       <c r="B7492">
-        <v>38.03534553954672</v>
+        <v>38.03534553954671</v>
       </c>
     </row>
     <row r="7493" spans="1:2">
@@ -60287,7 +60287,7 @@
         <v>7493</v>
       </c>
       <c r="B7493">
-        <v>40.71548018810472</v>
+        <v>40.71548018810471</v>
       </c>
     </row>
     <row r="7494" spans="1:2">
@@ -60391,7 +60391,7 @@
         <v>7506</v>
       </c>
       <c r="B7506">
-        <v>0.7956116714955005</v>
+        <v>0.7956116714955004</v>
       </c>
     </row>
     <row r="7507" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>67.99482553774141</v>
+        <v>67.99482553774139</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>73.21998908603453</v>
+        <v>73.21998908603452</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60695,7 +60695,7 @@
         <v>7544</v>
       </c>
       <c r="B7544">
-        <v>23.46118655085281</v>
+        <v>23.4611865508528</v>
       </c>
     </row>
     <row r="7545" spans="1:2">
@@ -60703,7 +60703,7 @@
         <v>7545</v>
       </c>
       <c r="B7545">
-        <v>7.526972793043197</v>
+        <v>7.526972793043196</v>
       </c>
     </row>
     <row r="7546" spans="1:2">
@@ -60799,7 +60799,7 @@
         <v>7557</v>
       </c>
       <c r="B7557">
-        <v>5.515128033944661</v>
+        <v>5.51512803394466</v>
       </c>
     </row>
     <row r="7558" spans="1:2">
@@ -60983,7 +60983,7 @@
         <v>7580</v>
       </c>
       <c r="B7580">
-        <v>51.03363224625471</v>
+        <v>51.0336322462547</v>
       </c>
     </row>
     <row r="7581" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>46.3837671468538</v>
+        <v>46.38376714685379</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>4.511183883906356</v>
+        <v>4.511183883906355</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61127,7 +61127,7 @@
         <v>7598</v>
       </c>
       <c r="B7598">
-        <v>2.419670693658119</v>
+        <v>2.419670693658118</v>
       </c>
     </row>
     <row r="7599" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>42.36136714122684</v>
+        <v>42.36136714122683</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>71.19193749849802</v>
+        <v>71.19193749849801</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>70.5468881424044</v>
+        <v>70.54688814240438</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61335,7 +61335,7 @@
         <v>7624</v>
       </c>
       <c r="B7624">
-        <v>27.41058256074924</v>
+        <v>27.41058256074923</v>
       </c>
     </row>
     <row r="7625" spans="1:2">
@@ -61391,7 +61391,7 @@
         <v>7631</v>
       </c>
       <c r="B7631">
-        <v>88.93650967632649</v>
+        <v>88.93650967632648</v>
       </c>
     </row>
     <row r="7632" spans="1:2">
@@ -61711,7 +61711,7 @@
         <v>7671</v>
       </c>
       <c r="B7671">
-        <v>19.24969711108155</v>
+        <v>19.24969711108154</v>
       </c>
     </row>
     <row r="7672" spans="1:2">
@@ -61983,7 +61983,7 @@
         <v>7705</v>
       </c>
       <c r="B7705">
-        <v>174.7661732718041</v>
+        <v>174.766173271804</v>
       </c>
     </row>
     <row r="7706" spans="1:2">
@@ -62039,7 +62039,7 @@
         <v>7712</v>
       </c>
       <c r="B7712">
-        <v>182.6618001243794</v>
+        <v>182.6618001243793</v>
       </c>
     </row>
     <row r="7713" spans="1:2">
@@ -62151,7 +62151,7 @@
         <v>7726</v>
       </c>
       <c r="B7726">
-        <v>119.3602141997608</v>
+        <v>119.3602141997607</v>
       </c>
     </row>
     <row r="7727" spans="1:2">
@@ -62343,7 +62343,7 @@
         <v>7750</v>
       </c>
       <c r="B7750">
-        <v>176.1740865415332</v>
+        <v>176.1740865415331</v>
       </c>
     </row>
     <row r="7751" spans="1:2">
@@ -62439,7 +62439,7 @@
         <v>7762</v>
       </c>
       <c r="B7762">
-        <v>90.16975260701344</v>
+        <v>90.16975260701342</v>
       </c>
     </row>
     <row r="7763" spans="1:2">
@@ -62527,7 +62527,7 @@
         <v>7773</v>
       </c>
       <c r="B7773">
-        <v>93.2065547096223</v>
+        <v>93.20655470962228</v>
       </c>
     </row>
     <row r="7774" spans="1:2">
@@ -62599,7 +62599,7 @@
         <v>7782</v>
       </c>
       <c r="B7782">
-        <v>272.8611529062976</v>
+        <v>272.8611529062975</v>
       </c>
     </row>
     <row r="7783" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>182.3622815228675</v>
+        <v>182.3622815228674</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>130.89578335251</v>
+        <v>130.8957833525099</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62855,7 +62855,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>90.3420783777463</v>
+        <v>90.34207837774628</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>310.7549451341709</v>
+        <v>310.7549451341708</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -63135,7 +63135,7 @@
         <v>7849</v>
       </c>
       <c r="B7849">
-        <v>309.8171178104546</v>
+        <v>309.8171178104545</v>
       </c>
     </row>
     <row r="7850" spans="1:2">
@@ -63239,7 +63239,7 @@
         <v>7862</v>
       </c>
       <c r="B7862">
-        <v>57.39503221143787</v>
+        <v>57.39503221143786</v>
       </c>
     </row>
     <row r="7863" spans="1:2">
@@ -63247,7 +63247,7 @@
         <v>7863</v>
       </c>
       <c r="B7863">
-        <v>53.16572405251599</v>
+        <v>53.16572405251598</v>
       </c>
     </row>
     <row r="7864" spans="1:2">
@@ -63271,7 +63271,7 @@
         <v>7866</v>
       </c>
       <c r="B7866">
-        <v>167.9956461366497</v>
+        <v>167.9956461366496</v>
       </c>
     </row>
     <row r="7867" spans="1:2">
@@ -63551,7 +63551,7 @@
         <v>7901</v>
       </c>
       <c r="B7901">
-        <v>98.90473491431484</v>
+        <v>98.90473491431482</v>
       </c>
     </row>
     <row r="7902" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>91.4355264229918</v>
+        <v>91.43552642299176</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63655,7 +63655,7 @@
         <v>7914</v>
       </c>
       <c r="B7914">
-        <v>36.32820673934438</v>
+        <v>36.32820673934437</v>
       </c>
     </row>
     <row r="7915" spans="1:2">
@@ -63679,7 +63679,7 @@
         <v>7917</v>
       </c>
       <c r="B7917">
-        <v>33.4341302325636</v>
+        <v>33.43413023256359</v>
       </c>
     </row>
     <row r="7918" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>5.417418149654968</v>
+        <v>5.417418149654967</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64071,7 +64071,7 @@
         <v>7966</v>
       </c>
       <c r="B7966">
-        <v>52.15462896913435</v>
+        <v>52.15462896913434</v>
       </c>
     </row>
     <row r="7967" spans="1:2">
@@ -64103,7 +64103,7 @@
         <v>7970</v>
       </c>
       <c r="B7970">
-        <v>176.5418906950532</v>
+        <v>176.5418906950531</v>
       </c>
     </row>
     <row r="7971" spans="1:2">
@@ -64119,7 +64119,7 @@
         <v>7972</v>
       </c>
       <c r="B7972">
-        <v>225.7406051682492</v>
+        <v>225.7406051682491</v>
       </c>
     </row>
     <row r="7973" spans="1:2">
@@ -64215,7 +64215,7 @@
         <v>7984</v>
       </c>
       <c r="B7984">
-        <v>67.07487554738344</v>
+        <v>67.07487554738343</v>
       </c>
     </row>
     <row r="7985" spans="1:2">
@@ -64455,7 +64455,7 @@
         <v>8014</v>
       </c>
       <c r="B8014">
-        <v>76.24624063125158</v>
+        <v>76.24624063125157</v>
       </c>
     </row>
     <row r="8015" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>93.39734395579084</v>
+        <v>93.39734395579082</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64487,7 +64487,7 @@
         <v>8018</v>
       </c>
       <c r="B8018">
-        <v>74.75333676031069</v>
+        <v>74.75333676031067</v>
       </c>
     </row>
     <row r="8019" spans="1:2">
@@ -64519,7 +64519,7 @@
         <v>8022</v>
       </c>
       <c r="B8022">
-        <v>37.72205259921774</v>
+        <v>37.72205259921773</v>
       </c>
     </row>
     <row r="8023" spans="1:2">
@@ -64535,7 +64535,7 @@
         <v>8024</v>
       </c>
       <c r="B8024">
-        <v>6.155957167081558</v>
+        <v>6.155957167081557</v>
       </c>
     </row>
     <row r="8025" spans="1:2">
@@ -64631,7 +64631,7 @@
         <v>8036</v>
       </c>
       <c r="B8036">
-        <v>4.244254781893603</v>
+        <v>4.244254781893602</v>
       </c>
     </row>
     <row r="8037" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>93.42254806511571</v>
+        <v>93.42254806511568</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -65255,7 +65255,7 @@
         <v>8114</v>
       </c>
       <c r="B8114">
-        <v>4.1085628909934</v>
+        <v>4.108562890993399</v>
       </c>
     </row>
     <row r="8115" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>3.191602225229783</v>
+        <v>3.191602225229782</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65447,7 +65447,7 @@
         <v>8138</v>
       </c>
       <c r="B8138">
-        <v>2.973352222738679</v>
+        <v>2.973352222738678</v>
       </c>
     </row>
     <row r="8139" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>6.383028607836368</v>
+        <v>6.383028607836367</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66143,7 +66143,7 @@
         <v>8225</v>
       </c>
       <c r="B8225">
-        <v>66.54500310948373</v>
+        <v>66.54500310948372</v>
       </c>
     </row>
     <row r="8226" spans="1:2">
@@ -66231,7 +66231,7 @@
         <v>8236</v>
       </c>
       <c r="B8236">
-        <v>228.2838756417524</v>
+        <v>228.2838756417523</v>
       </c>
     </row>
     <row r="8237" spans="1:2">
@@ -66335,7 +66335,7 @@
         <v>8249</v>
       </c>
       <c r="B8249">
-        <v>51.31351508817629</v>
+        <v>51.31351508817628</v>
       </c>
     </row>
     <row r="8250" spans="1:2">
@@ -66359,7 +66359,7 @@
         <v>8252</v>
       </c>
       <c r="B8252">
-        <v>31.39787265594457</v>
+        <v>31.39787265594456</v>
       </c>
     </row>
     <row r="8253" spans="1:2">
@@ -66367,7 +66367,7 @@
         <v>8253</v>
       </c>
       <c r="B8253">
-        <v>22.97316465727394</v>
+        <v>22.97316465727393</v>
       </c>
     </row>
     <row r="8254" spans="1:2">
@@ -66391,7 +66391,7 @@
         <v>8256</v>
       </c>
       <c r="B8256">
-        <v>82.48806761266091</v>
+        <v>82.4880676126609</v>
       </c>
     </row>
     <row r="8257" spans="1:2">
@@ -66479,7 +66479,7 @@
         <v>8267</v>
       </c>
       <c r="B8267">
-        <v>35.54131100053867</v>
+        <v>35.54131100053866</v>
       </c>
     </row>
     <row r="8268" spans="1:2">
@@ -66567,7 +66567,7 @@
         <v>8278</v>
       </c>
       <c r="B8278">
-        <v>90.91561840040656</v>
+        <v>90.91561840040654</v>
       </c>
     </row>
     <row r="8279" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>235.0324224490072</v>
+        <v>235.0324224490071</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66711,7 +66711,7 @@
         <v>8296</v>
       </c>
       <c r="B8296">
-        <v>65.92838164414026</v>
+        <v>65.92838164414025</v>
       </c>
     </row>
     <row r="8297" spans="1:2">
@@ -66767,7 +66767,7 @@
         <v>8303</v>
       </c>
       <c r="B8303">
-        <v>70.79922230669182</v>
+        <v>70.7992223066918</v>
       </c>
     </row>
     <row r="8304" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>62.5996807870247</v>
+        <v>62.59968078702469</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>51.74403644396981</v>
+        <v>51.7440364439698</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67223,7 +67223,7 @@
         <v>8360</v>
       </c>
       <c r="B8360">
-        <v>269.076433513025</v>
+        <v>269.0764335130249</v>
       </c>
     </row>
     <row r="8361" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>55.84615177211266</v>
+        <v>55.84615177211265</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67303,7 +67303,7 @@
         <v>8370</v>
       </c>
       <c r="B8370">
-        <v>132.3939625021468</v>
+        <v>132.3939625021467</v>
       </c>
     </row>
     <row r="8371" spans="1:2">
@@ -67439,7 +67439,7 @@
         <v>8387</v>
       </c>
       <c r="B8387">
-        <v>57.94248891165726</v>
+        <v>57.94248891165725</v>
       </c>
     </row>
     <row r="8388" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>21.6791681002725</v>
+        <v>21.67916810027249</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>52.43949401871318</v>
+        <v>52.43949401871317</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -68215,7 +68215,7 @@
         <v>8484</v>
       </c>
       <c r="B8484">
-        <v>6.551544455066642</v>
+        <v>6.551544455066641</v>
       </c>
     </row>
     <row r="8485" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>3.24151222311381</v>
+        <v>3.241512223113809</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -68239,7 +68239,7 @@
         <v>8487</v>
       </c>
       <c r="B8487">
-        <v>3.546276796217743</v>
+        <v>3.546276796217742</v>
       </c>
     </row>
     <row r="8488" spans="1:2">
@@ -68263,7 +68263,7 @@
         <v>8490</v>
       </c>
       <c r="B8490">
-        <v>27.57901048666791</v>
+        <v>27.5790104866679</v>
       </c>
     </row>
     <row r="8491" spans="1:2">
@@ -68343,7 +68343,7 @@
         <v>8500</v>
       </c>
       <c r="B8500">
-        <v>124.2700333104543</v>
+        <v>124.2700333104542</v>
       </c>
     </row>
     <row r="8501" spans="1:2">
@@ -68519,7 +68519,7 @@
         <v>8522</v>
       </c>
       <c r="B8522">
-        <v>9.687170111912108</v>
+        <v>9.687170111912106</v>
       </c>
     </row>
     <row r="8523" spans="1:2">
@@ -68919,7 +68919,7 @@
         <v>8572</v>
       </c>
       <c r="B8572">
-        <v>317.5864310453669</v>
+        <v>317.5864310453668</v>
       </c>
     </row>
     <row r="8573" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>320.9948472249983</v>
+        <v>320.9948472249982</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>261.60546659547</v>
+        <v>261.6054665954699</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>222.6759613169675</v>
+        <v>222.6759613169674</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69047,7 +69047,7 @@
         <v>8588</v>
       </c>
       <c r="B8588">
-        <v>192.4562342364416</v>
+        <v>192.4562342364415</v>
       </c>
     </row>
     <row r="8589" spans="1:2">
@@ -69095,7 +69095,7 @@
         <v>8594</v>
       </c>
       <c r="B8594">
-        <v>262.4993332633871</v>
+        <v>262.499333263387</v>
       </c>
     </row>
     <row r="8595" spans="1:2">
@@ -69127,7 +69127,7 @@
         <v>8598</v>
       </c>
       <c r="B8598">
-        <v>308.2462570432298</v>
+        <v>308.2462570432297</v>
       </c>
     </row>
     <row r="8599" spans="1:2">
@@ -69239,7 +69239,7 @@
         <v>8612</v>
       </c>
       <c r="B8612">
-        <v>230.0616445622721</v>
+        <v>230.061644562272</v>
       </c>
     </row>
     <row r="8613" spans="1:2">
@@ -69287,7 +69287,7 @@
         <v>8618</v>
       </c>
       <c r="B8618">
-        <v>336.6975934764732</v>
+        <v>336.6975934764731</v>
       </c>
     </row>
     <row r="8619" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>216.1428217231288</v>
+        <v>216.1428217231287</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69479,7 +69479,7 @@
         <v>8642</v>
       </c>
       <c r="B8642">
-        <v>290.5216136960303</v>
+        <v>290.5216136960302</v>
       </c>
     </row>
     <row r="8643" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>316.7599707163419</v>
+        <v>316.7599707163418</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>69.18967616236371</v>
+        <v>69.1896761623637</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69599,7 +69599,7 @@
         <v>8657</v>
       </c>
       <c r="B8657">
-        <v>158.7217061892501</v>
+        <v>158.72170618925</v>
       </c>
     </row>
     <row r="8658" spans="1:2">
@@ -69663,7 +69663,7 @@
         <v>8665</v>
       </c>
       <c r="B8665">
-        <v>208.7014549804786</v>
+        <v>208.7014549804785</v>
       </c>
     </row>
     <row r="8666" spans="1:2">
@@ -69679,7 +69679,7 @@
         <v>8667</v>
       </c>
       <c r="B8667">
-        <v>219.8384475206484</v>
+        <v>219.8384475206483</v>
       </c>
     </row>
     <row r="8668" spans="1:2">
@@ -69807,7 +69807,7 @@
         <v>8683</v>
       </c>
       <c r="B8683">
-        <v>126.4331906468137</v>
+        <v>126.4331906468136</v>
       </c>
     </row>
     <row r="8684" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>160.8338691648824</v>
+        <v>160.8338691648823</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -69999,7 +69999,7 @@
         <v>8707</v>
       </c>
       <c r="B8707">
-        <v>137.2712507275489</v>
+        <v>137.2712507275488</v>
       </c>
     </row>
     <row r="8708" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>331.4955825402343</v>
+        <v>331.4955825402342</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
